--- a/N.Colon-Lettuce-DiseaseSeverity.xlsx
+++ b/N.Colon-Lettuce-DiseaseSeverity.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolecolon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolecolon/Desktop/Phytoparastica/Excels_Data_Lettuce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D1692F-A179-2148-BFC5-DB457353A7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FA37E4-B2E5-F54A-9911-A1C31EC43AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15380" xr2:uid="{F8092641-F0C7-0247-9F4D-3785F7C66179}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="11">
   <si>
     <r>
       <t xml:space="preserve">Disease severity observed in </t>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>FOL</t>
+  </si>
+  <si>
+    <t>Outliers were removed prior to data analysis. One outliers from SY1140A.</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA27C5F7-01BA-694C-BFE3-8BC7E5AA080E}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -538,57 +541,45 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -605,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -622,24 +613,24 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -656,10 +647,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="7"/>
       <c r="G10" s="7"/>
@@ -673,10 +664,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7"/>
       <c r="G11" s="7"/>
@@ -690,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
@@ -704,24 +695,30 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -729,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -740,7 +737,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
@@ -751,10 +748,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -762,10 +759,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -773,32 +770,32 @@
         <v>6</v>
       </c>
       <c r="B19" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14" customHeight="1">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -806,10 +803,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -817,10 +814,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -828,10 +825,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -839,10 +836,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -850,10 +847,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -861,10 +858,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -872,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -880,13 +877,13 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -894,7 +891,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
@@ -905,7 +902,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2">
         <v>2</v>
@@ -916,10 +913,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -927,10 +924,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -938,7 +935,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
@@ -949,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2">
         <v>2</v>
@@ -960,7 +957,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -968,10 +965,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2">
         <v>2</v>
@@ -982,7 +979,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="2">
         <v>2</v>
@@ -993,10 +990,10 @@
         <v>9</v>
       </c>
       <c r="B39" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1004,7 +1001,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="2">
         <v>3</v>
@@ -1015,10 +1012,10 @@
         <v>9</v>
       </c>
       <c r="B41" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1026,10 +1023,10 @@
         <v>9</v>
       </c>
       <c r="B42" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1037,20 +1034,31 @@
         <v>9</v>
       </c>
       <c r="B43" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="8" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="8">
-        <v>8</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="B45" s="8">
+        <v>8</v>
+      </c>
+      <c r="C45" s="8">
         <v>4</v>
       </c>
     </row>
